--- a/gilded exercise docs/conjurados.xlsx
+++ b/gilded exercise docs/conjurados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L41561691R\curso\gilded exercise docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L41561691R\curso\vs code\git\testing_qa_logirail\gilded exercise docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DDC520B-749A-46D9-8064-3CB75A6468C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE12BD0-0A26-416D-B941-81D9961DDAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{364A4555-4B1D-4F3C-B9BC-1E7E493EC996}"/>
   </bookViews>
@@ -574,12 +574,13 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
